--- a/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_Application_Design/010_System_Functional_Design/System_function_design(screen)_WA10201_Project_registration.xlsx
+++ b/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_Application_Design/010_System_Functional_Design/System_function_design(screen)_WA10201_Project_registration.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{43CBF8D0-05DD-4436-AE5E-A1E8D0EDEC5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AB91FE-5AE5-479A-97D4-161D9E324CDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" tabRatio="951" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="951" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
@@ -56,82 +56,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{C6AAB38A-E577-41FB-8D6A-84402434B56B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は
-「subfunction」と訳してください。
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{6E7391CA-98E3-47D8-8A32-A52ABD19FD6D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は
-「subfunction」と訳してください。
-表内も同様に修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
     <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
@@ -148,34 +72,6 @@
 4. List of screen events
 5. Screen event details
 6. Screen event supplement (1) * This section is described in the internal design process.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{E6738CEC-9F1C-4381-B281-67016BAFE5F3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-注釈の6番につきまして
-「内部設計工程」は
-「internal design process」と訳してください。</t>
         </r>
       </text>
     </comment>
@@ -448,38 +344,11 @@
         </r>
       </text>
     </comment>
-    <comment ref="G156" authorId="0" shapeId="0" xr:uid="{3B9575A5-E21D-4638-ABEC-8DD313B7535B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「Date combination validation」
-としてください。</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
@@ -704,49 +573,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="K76" authorId="0" shapeId="0" xr:uid="{A4480219-9A0A-4052-ABF0-16B6A5DC2B96}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">作成者:
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E77" authorId="0" shapeId="0" xr:uid="{DEE2DDEF-EF15-48F4-BB20-3FEB7BB4C91D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「Back」
-としてください。</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="G80" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
       <text>
         <r>
@@ -776,38 +602,11 @@
         </r>
       </text>
     </comment>
-    <comment ref="E115" authorId="0" shapeId="0" xr:uid="{1DB8B906-C77A-4FE0-A727-17B454B04C60}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「Back event」
-としてください。</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
@@ -830,34 +629,6 @@
 5. Screen event details
 6. Screen event supplement (1) * This section is described in the internal design process.
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{A870EA67-21C0-4F83-B304-0E13D4BB4238}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-注釈の6番につきまして
-「内部設計工程」は
-「internal design proces」と訳してください。</t>
         </r>
       </text>
     </comment>
@@ -1081,7 +852,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="266">
   <si>
     <t>PJ名</t>
   </si>
@@ -1719,9 +1490,6 @@
     <t>O</t>
   </si>
   <si>
-    <t>Press the "OK" button</t>
-  </si>
-  <si>
     <t>Registers the contents displayed on this screen in the database.</t>
   </si>
   <si>
@@ -1880,6 +1648,14 @@
   </si>
   <si>
     <t>3.6.2. Back event</t>
+  </si>
+  <si>
+    <t>Required</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Press the "OK" button</t>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -5194,9 +4970,9 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
@@ -5314,7 +5090,7 @@
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="6:12" ht="19">
+    <row r="32" spans="6:12" ht="18.75">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -5323,7 +5099,7 @@
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="6:19" ht="19">
+    <row r="33" spans="6:19" ht="18.75">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="19"/>
@@ -5335,7 +5111,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="19">
+    <row r="34" spans="6:19" ht="18.75">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="19"/>
@@ -5882,9 +5658,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="4.77734375" style="26"/>
+    <col min="1" max="16384" width="4.83203125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1">
@@ -7427,152 +7203,152 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16" width="4.77734375" style="49" customWidth="1"/>
-    <col min="17" max="17" width="4.77734375" style="57" customWidth="1"/>
-    <col min="18" max="33" width="4.77734375" style="49" customWidth="1"/>
-    <col min="34" max="34" width="4.77734375" style="57" customWidth="1"/>
-    <col min="35" max="256" width="4.77734375" style="49"/>
-    <col min="257" max="290" width="4.77734375" style="49" customWidth="1"/>
-    <col min="291" max="512" width="4.77734375" style="49"/>
-    <col min="513" max="546" width="4.77734375" style="49" customWidth="1"/>
-    <col min="547" max="768" width="4.77734375" style="49"/>
-    <col min="769" max="802" width="4.77734375" style="49" customWidth="1"/>
-    <col min="803" max="1024" width="4.77734375" style="49"/>
-    <col min="1025" max="1058" width="4.77734375" style="49" customWidth="1"/>
-    <col min="1059" max="1280" width="4.77734375" style="49"/>
-    <col min="1281" max="1314" width="4.77734375" style="49" customWidth="1"/>
-    <col min="1315" max="1536" width="4.77734375" style="49"/>
-    <col min="1537" max="1570" width="4.77734375" style="49" customWidth="1"/>
-    <col min="1571" max="1792" width="4.77734375" style="49"/>
-    <col min="1793" max="1826" width="4.77734375" style="49" customWidth="1"/>
-    <col min="1827" max="2048" width="4.77734375" style="49"/>
-    <col min="2049" max="2082" width="4.77734375" style="49" customWidth="1"/>
-    <col min="2083" max="2304" width="4.77734375" style="49"/>
-    <col min="2305" max="2338" width="4.77734375" style="49" customWidth="1"/>
-    <col min="2339" max="2560" width="4.77734375" style="49"/>
-    <col min="2561" max="2594" width="4.77734375" style="49" customWidth="1"/>
-    <col min="2595" max="2816" width="4.77734375" style="49"/>
-    <col min="2817" max="2850" width="4.77734375" style="49" customWidth="1"/>
-    <col min="2851" max="3072" width="4.77734375" style="49"/>
-    <col min="3073" max="3106" width="4.77734375" style="49" customWidth="1"/>
-    <col min="3107" max="3328" width="4.77734375" style="49"/>
-    <col min="3329" max="3362" width="4.77734375" style="49" customWidth="1"/>
-    <col min="3363" max="3584" width="4.77734375" style="49"/>
-    <col min="3585" max="3618" width="4.77734375" style="49" customWidth="1"/>
-    <col min="3619" max="3840" width="4.77734375" style="49"/>
-    <col min="3841" max="3874" width="4.77734375" style="49" customWidth="1"/>
-    <col min="3875" max="4096" width="4.77734375" style="49"/>
-    <col min="4097" max="4130" width="4.77734375" style="49" customWidth="1"/>
-    <col min="4131" max="4352" width="4.77734375" style="49"/>
-    <col min="4353" max="4386" width="4.77734375" style="49" customWidth="1"/>
-    <col min="4387" max="4608" width="4.77734375" style="49"/>
-    <col min="4609" max="4642" width="4.77734375" style="49" customWidth="1"/>
-    <col min="4643" max="4864" width="4.77734375" style="49"/>
-    <col min="4865" max="4898" width="4.77734375" style="49" customWidth="1"/>
-    <col min="4899" max="5120" width="4.77734375" style="49"/>
-    <col min="5121" max="5154" width="4.77734375" style="49" customWidth="1"/>
-    <col min="5155" max="5376" width="4.77734375" style="49"/>
-    <col min="5377" max="5410" width="4.77734375" style="49" customWidth="1"/>
-    <col min="5411" max="5632" width="4.77734375" style="49"/>
-    <col min="5633" max="5666" width="4.77734375" style="49" customWidth="1"/>
-    <col min="5667" max="5888" width="4.77734375" style="49"/>
-    <col min="5889" max="5922" width="4.77734375" style="49" customWidth="1"/>
-    <col min="5923" max="6144" width="4.77734375" style="49"/>
-    <col min="6145" max="6178" width="4.77734375" style="49" customWidth="1"/>
-    <col min="6179" max="6400" width="4.77734375" style="49"/>
-    <col min="6401" max="6434" width="4.77734375" style="49" customWidth="1"/>
-    <col min="6435" max="6656" width="4.77734375" style="49"/>
-    <col min="6657" max="6690" width="4.77734375" style="49" customWidth="1"/>
-    <col min="6691" max="6912" width="4.77734375" style="49"/>
-    <col min="6913" max="6946" width="4.77734375" style="49" customWidth="1"/>
-    <col min="6947" max="7168" width="4.77734375" style="49"/>
-    <col min="7169" max="7202" width="4.77734375" style="49" customWidth="1"/>
-    <col min="7203" max="7424" width="4.77734375" style="49"/>
-    <col min="7425" max="7458" width="4.77734375" style="49" customWidth="1"/>
-    <col min="7459" max="7680" width="4.77734375" style="49"/>
-    <col min="7681" max="7714" width="4.77734375" style="49" customWidth="1"/>
-    <col min="7715" max="7936" width="4.77734375" style="49"/>
-    <col min="7937" max="7970" width="4.77734375" style="49" customWidth="1"/>
-    <col min="7971" max="8192" width="4.77734375" style="49"/>
-    <col min="8193" max="8226" width="4.77734375" style="49" customWidth="1"/>
-    <col min="8227" max="8448" width="4.77734375" style="49"/>
-    <col min="8449" max="8482" width="4.77734375" style="49" customWidth="1"/>
-    <col min="8483" max="8704" width="4.77734375" style="49"/>
-    <col min="8705" max="8738" width="4.77734375" style="49" customWidth="1"/>
-    <col min="8739" max="8960" width="4.77734375" style="49"/>
-    <col min="8961" max="8994" width="4.77734375" style="49" customWidth="1"/>
-    <col min="8995" max="9216" width="4.77734375" style="49"/>
-    <col min="9217" max="9250" width="4.77734375" style="49" customWidth="1"/>
-    <col min="9251" max="9472" width="4.77734375" style="49"/>
-    <col min="9473" max="9506" width="4.77734375" style="49" customWidth="1"/>
-    <col min="9507" max="9728" width="4.77734375" style="49"/>
-    <col min="9729" max="9762" width="4.77734375" style="49" customWidth="1"/>
-    <col min="9763" max="9984" width="4.77734375" style="49"/>
-    <col min="9985" max="10018" width="4.77734375" style="49" customWidth="1"/>
-    <col min="10019" max="10240" width="4.77734375" style="49"/>
-    <col min="10241" max="10274" width="4.77734375" style="49" customWidth="1"/>
-    <col min="10275" max="10496" width="4.77734375" style="49"/>
-    <col min="10497" max="10530" width="4.77734375" style="49" customWidth="1"/>
-    <col min="10531" max="10752" width="4.77734375" style="49"/>
-    <col min="10753" max="10786" width="4.77734375" style="49" customWidth="1"/>
-    <col min="10787" max="11008" width="4.77734375" style="49"/>
-    <col min="11009" max="11042" width="4.77734375" style="49" customWidth="1"/>
-    <col min="11043" max="11264" width="4.77734375" style="49"/>
-    <col min="11265" max="11298" width="4.77734375" style="49" customWidth="1"/>
-    <col min="11299" max="11520" width="4.77734375" style="49"/>
-    <col min="11521" max="11554" width="4.77734375" style="49" customWidth="1"/>
-    <col min="11555" max="11776" width="4.77734375" style="49"/>
-    <col min="11777" max="11810" width="4.77734375" style="49" customWidth="1"/>
-    <col min="11811" max="12032" width="4.77734375" style="49"/>
-    <col min="12033" max="12066" width="4.77734375" style="49" customWidth="1"/>
-    <col min="12067" max="12288" width="4.77734375" style="49"/>
-    <col min="12289" max="12322" width="4.77734375" style="49" customWidth="1"/>
-    <col min="12323" max="12544" width="4.77734375" style="49"/>
-    <col min="12545" max="12578" width="4.77734375" style="49" customWidth="1"/>
-    <col min="12579" max="12800" width="4.77734375" style="49"/>
-    <col min="12801" max="12834" width="4.77734375" style="49" customWidth="1"/>
-    <col min="12835" max="13056" width="4.77734375" style="49"/>
-    <col min="13057" max="13090" width="4.77734375" style="49" customWidth="1"/>
-    <col min="13091" max="13312" width="4.77734375" style="49"/>
-    <col min="13313" max="13346" width="4.77734375" style="49" customWidth="1"/>
-    <col min="13347" max="13568" width="4.77734375" style="49"/>
-    <col min="13569" max="13602" width="4.77734375" style="49" customWidth="1"/>
-    <col min="13603" max="13824" width="4.77734375" style="49"/>
-    <col min="13825" max="13858" width="4.77734375" style="49" customWidth="1"/>
-    <col min="13859" max="14080" width="4.77734375" style="49"/>
-    <col min="14081" max="14114" width="4.77734375" style="49" customWidth="1"/>
-    <col min="14115" max="14336" width="4.77734375" style="49"/>
-    <col min="14337" max="14370" width="4.77734375" style="49" customWidth="1"/>
-    <col min="14371" max="14592" width="4.77734375" style="49"/>
-    <col min="14593" max="14626" width="4.77734375" style="49" customWidth="1"/>
-    <col min="14627" max="14848" width="4.77734375" style="49"/>
-    <col min="14849" max="14882" width="4.77734375" style="49" customWidth="1"/>
-    <col min="14883" max="15104" width="4.77734375" style="49"/>
-    <col min="15105" max="15138" width="4.77734375" style="49" customWidth="1"/>
-    <col min="15139" max="15360" width="4.77734375" style="49"/>
-    <col min="15361" max="15394" width="4.77734375" style="49" customWidth="1"/>
-    <col min="15395" max="15616" width="4.77734375" style="49"/>
-    <col min="15617" max="15650" width="4.77734375" style="49" customWidth="1"/>
-    <col min="15651" max="15872" width="4.77734375" style="49"/>
-    <col min="15873" max="15906" width="4.77734375" style="49" customWidth="1"/>
-    <col min="15907" max="16128" width="4.77734375" style="49"/>
-    <col min="16129" max="16162" width="4.77734375" style="49" customWidth="1"/>
-    <col min="16163" max="16384" width="4.77734375" style="49"/>
+    <col min="1" max="16" width="4.83203125" style="49" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="57" customWidth="1"/>
+    <col min="18" max="33" width="4.83203125" style="49" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="57" customWidth="1"/>
+    <col min="35" max="256" width="4.83203125" style="49"/>
+    <col min="257" max="290" width="4.83203125" style="49" customWidth="1"/>
+    <col min="291" max="512" width="4.83203125" style="49"/>
+    <col min="513" max="546" width="4.83203125" style="49" customWidth="1"/>
+    <col min="547" max="768" width="4.83203125" style="49"/>
+    <col min="769" max="802" width="4.83203125" style="49" customWidth="1"/>
+    <col min="803" max="1024" width="4.83203125" style="49"/>
+    <col min="1025" max="1058" width="4.83203125" style="49" customWidth="1"/>
+    <col min="1059" max="1280" width="4.83203125" style="49"/>
+    <col min="1281" max="1314" width="4.83203125" style="49" customWidth="1"/>
+    <col min="1315" max="1536" width="4.83203125" style="49"/>
+    <col min="1537" max="1570" width="4.83203125" style="49" customWidth="1"/>
+    <col min="1571" max="1792" width="4.83203125" style="49"/>
+    <col min="1793" max="1826" width="4.83203125" style="49" customWidth="1"/>
+    <col min="1827" max="2048" width="4.83203125" style="49"/>
+    <col min="2049" max="2082" width="4.83203125" style="49" customWidth="1"/>
+    <col min="2083" max="2304" width="4.83203125" style="49"/>
+    <col min="2305" max="2338" width="4.83203125" style="49" customWidth="1"/>
+    <col min="2339" max="2560" width="4.83203125" style="49"/>
+    <col min="2561" max="2594" width="4.83203125" style="49" customWidth="1"/>
+    <col min="2595" max="2816" width="4.83203125" style="49"/>
+    <col min="2817" max="2850" width="4.83203125" style="49" customWidth="1"/>
+    <col min="2851" max="3072" width="4.83203125" style="49"/>
+    <col min="3073" max="3106" width="4.83203125" style="49" customWidth="1"/>
+    <col min="3107" max="3328" width="4.83203125" style="49"/>
+    <col min="3329" max="3362" width="4.83203125" style="49" customWidth="1"/>
+    <col min="3363" max="3584" width="4.83203125" style="49"/>
+    <col min="3585" max="3618" width="4.83203125" style="49" customWidth="1"/>
+    <col min="3619" max="3840" width="4.83203125" style="49"/>
+    <col min="3841" max="3874" width="4.83203125" style="49" customWidth="1"/>
+    <col min="3875" max="4096" width="4.83203125" style="49"/>
+    <col min="4097" max="4130" width="4.83203125" style="49" customWidth="1"/>
+    <col min="4131" max="4352" width="4.83203125" style="49"/>
+    <col min="4353" max="4386" width="4.83203125" style="49" customWidth="1"/>
+    <col min="4387" max="4608" width="4.83203125" style="49"/>
+    <col min="4609" max="4642" width="4.83203125" style="49" customWidth="1"/>
+    <col min="4643" max="4864" width="4.83203125" style="49"/>
+    <col min="4865" max="4898" width="4.83203125" style="49" customWidth="1"/>
+    <col min="4899" max="5120" width="4.83203125" style="49"/>
+    <col min="5121" max="5154" width="4.83203125" style="49" customWidth="1"/>
+    <col min="5155" max="5376" width="4.83203125" style="49"/>
+    <col min="5377" max="5410" width="4.83203125" style="49" customWidth="1"/>
+    <col min="5411" max="5632" width="4.83203125" style="49"/>
+    <col min="5633" max="5666" width="4.83203125" style="49" customWidth="1"/>
+    <col min="5667" max="5888" width="4.83203125" style="49"/>
+    <col min="5889" max="5922" width="4.83203125" style="49" customWidth="1"/>
+    <col min="5923" max="6144" width="4.83203125" style="49"/>
+    <col min="6145" max="6178" width="4.83203125" style="49" customWidth="1"/>
+    <col min="6179" max="6400" width="4.83203125" style="49"/>
+    <col min="6401" max="6434" width="4.83203125" style="49" customWidth="1"/>
+    <col min="6435" max="6656" width="4.83203125" style="49"/>
+    <col min="6657" max="6690" width="4.83203125" style="49" customWidth="1"/>
+    <col min="6691" max="6912" width="4.83203125" style="49"/>
+    <col min="6913" max="6946" width="4.83203125" style="49" customWidth="1"/>
+    <col min="6947" max="7168" width="4.83203125" style="49"/>
+    <col min="7169" max="7202" width="4.83203125" style="49" customWidth="1"/>
+    <col min="7203" max="7424" width="4.83203125" style="49"/>
+    <col min="7425" max="7458" width="4.83203125" style="49" customWidth="1"/>
+    <col min="7459" max="7680" width="4.83203125" style="49"/>
+    <col min="7681" max="7714" width="4.83203125" style="49" customWidth="1"/>
+    <col min="7715" max="7936" width="4.83203125" style="49"/>
+    <col min="7937" max="7970" width="4.83203125" style="49" customWidth="1"/>
+    <col min="7971" max="8192" width="4.83203125" style="49"/>
+    <col min="8193" max="8226" width="4.83203125" style="49" customWidth="1"/>
+    <col min="8227" max="8448" width="4.83203125" style="49"/>
+    <col min="8449" max="8482" width="4.83203125" style="49" customWidth="1"/>
+    <col min="8483" max="8704" width="4.83203125" style="49"/>
+    <col min="8705" max="8738" width="4.83203125" style="49" customWidth="1"/>
+    <col min="8739" max="8960" width="4.83203125" style="49"/>
+    <col min="8961" max="8994" width="4.83203125" style="49" customWidth="1"/>
+    <col min="8995" max="9216" width="4.83203125" style="49"/>
+    <col min="9217" max="9250" width="4.83203125" style="49" customWidth="1"/>
+    <col min="9251" max="9472" width="4.83203125" style="49"/>
+    <col min="9473" max="9506" width="4.83203125" style="49" customWidth="1"/>
+    <col min="9507" max="9728" width="4.83203125" style="49"/>
+    <col min="9729" max="9762" width="4.83203125" style="49" customWidth="1"/>
+    <col min="9763" max="9984" width="4.83203125" style="49"/>
+    <col min="9985" max="10018" width="4.83203125" style="49" customWidth="1"/>
+    <col min="10019" max="10240" width="4.83203125" style="49"/>
+    <col min="10241" max="10274" width="4.83203125" style="49" customWidth="1"/>
+    <col min="10275" max="10496" width="4.83203125" style="49"/>
+    <col min="10497" max="10530" width="4.83203125" style="49" customWidth="1"/>
+    <col min="10531" max="10752" width="4.83203125" style="49"/>
+    <col min="10753" max="10786" width="4.83203125" style="49" customWidth="1"/>
+    <col min="10787" max="11008" width="4.83203125" style="49"/>
+    <col min="11009" max="11042" width="4.83203125" style="49" customWidth="1"/>
+    <col min="11043" max="11264" width="4.83203125" style="49"/>
+    <col min="11265" max="11298" width="4.83203125" style="49" customWidth="1"/>
+    <col min="11299" max="11520" width="4.83203125" style="49"/>
+    <col min="11521" max="11554" width="4.83203125" style="49" customWidth="1"/>
+    <col min="11555" max="11776" width="4.83203125" style="49"/>
+    <col min="11777" max="11810" width="4.83203125" style="49" customWidth="1"/>
+    <col min="11811" max="12032" width="4.83203125" style="49"/>
+    <col min="12033" max="12066" width="4.83203125" style="49" customWidth="1"/>
+    <col min="12067" max="12288" width="4.83203125" style="49"/>
+    <col min="12289" max="12322" width="4.83203125" style="49" customWidth="1"/>
+    <col min="12323" max="12544" width="4.83203125" style="49"/>
+    <col min="12545" max="12578" width="4.83203125" style="49" customWidth="1"/>
+    <col min="12579" max="12800" width="4.83203125" style="49"/>
+    <col min="12801" max="12834" width="4.83203125" style="49" customWidth="1"/>
+    <col min="12835" max="13056" width="4.83203125" style="49"/>
+    <col min="13057" max="13090" width="4.83203125" style="49" customWidth="1"/>
+    <col min="13091" max="13312" width="4.83203125" style="49"/>
+    <col min="13313" max="13346" width="4.83203125" style="49" customWidth="1"/>
+    <col min="13347" max="13568" width="4.83203125" style="49"/>
+    <col min="13569" max="13602" width="4.83203125" style="49" customWidth="1"/>
+    <col min="13603" max="13824" width="4.83203125" style="49"/>
+    <col min="13825" max="13858" width="4.83203125" style="49" customWidth="1"/>
+    <col min="13859" max="14080" width="4.83203125" style="49"/>
+    <col min="14081" max="14114" width="4.83203125" style="49" customWidth="1"/>
+    <col min="14115" max="14336" width="4.83203125" style="49"/>
+    <col min="14337" max="14370" width="4.83203125" style="49" customWidth="1"/>
+    <col min="14371" max="14592" width="4.83203125" style="49"/>
+    <col min="14593" max="14626" width="4.83203125" style="49" customWidth="1"/>
+    <col min="14627" max="14848" width="4.83203125" style="49"/>
+    <col min="14849" max="14882" width="4.83203125" style="49" customWidth="1"/>
+    <col min="14883" max="15104" width="4.83203125" style="49"/>
+    <col min="15105" max="15138" width="4.83203125" style="49" customWidth="1"/>
+    <col min="15139" max="15360" width="4.83203125" style="49"/>
+    <col min="15361" max="15394" width="4.83203125" style="49" customWidth="1"/>
+    <col min="15395" max="15616" width="4.83203125" style="49"/>
+    <col min="15617" max="15650" width="4.83203125" style="49" customWidth="1"/>
+    <col min="15651" max="15872" width="4.83203125" style="49"/>
+    <col min="15873" max="15906" width="4.83203125" style="49" customWidth="1"/>
+    <col min="15907" max="16128" width="4.83203125" style="49"/>
+    <col min="16129" max="16162" width="4.83203125" style="49" customWidth="1"/>
+    <col min="16163" max="16384" width="4.83203125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="37" customFormat="1" ht="11.5" hidden="1">
+    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1">
       <c r="A1" s="249" t="s">
         <v>0</v>
       </c>
@@ -7628,7 +7404,7 @@
       <c r="AH1" s="244"/>
       <c r="AI1" s="245"/>
     </row>
-    <row r="2" spans="1:35" s="37" customFormat="1" ht="11.5" hidden="1">
+    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1">
       <c r="A2" s="249" t="s">
         <v>3</v>
       </c>
@@ -7678,7 +7454,7 @@
       <c r="AH2" s="244"/>
       <c r="AI2" s="245"/>
     </row>
-    <row r="3" spans="1:35" s="37" customFormat="1" ht="11.5" hidden="1">
+    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1">
       <c r="A3" s="249" t="s">
         <v>5</v>
       </c>
@@ -7842,7 +7618,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1">
       <c r="A7" s="42"/>
       <c r="B7" s="43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="44"/>
@@ -7882,7 +7658,7 @@
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
@@ -9211,24 +8987,23 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="4.77734375" style="54"/>
+    <col min="1" max="16384" width="4.83203125" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" hidden="1">
@@ -9388,19 +9163,19 @@
     <row r="4" spans="1:35" ht="12" customHeight="1"/>
     <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
       <c r="B5" s="58" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
       <c r="C6" s="58" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1"/>
     <row r="8" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
       <c r="B8" s="82"/>
       <c r="C8" s="280" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D8" s="281"/>
       <c r="E8" s="281"/>
@@ -9438,7 +9213,7 @@
     <row r="9" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
       <c r="B9" s="82"/>
       <c r="C9" s="285" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D9" s="286"/>
       <c r="E9" s="286"/>
@@ -9476,7 +9251,7 @@
     <row r="10" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="82"/>
       <c r="C10" s="271" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D10" s="272"/>
       <c r="E10" s="272"/>
@@ -9722,7 +9497,6 @@
   <headerFooter>
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9733,15 +9507,15 @@
   </sheetPr>
   <dimension ref="A1:BF163"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A133" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AA159" sqref="AA159"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="7" width="4.77734375" style="54"/>
-    <col min="8" max="9" width="4.77734375" style="54" customWidth="1"/>
-    <col min="10" max="16384" width="4.77734375" style="54"/>
+    <col min="1" max="7" width="4.83203125" style="54"/>
+    <col min="8" max="9" width="4.83203125" style="54" customWidth="1"/>
+    <col min="10" max="16384" width="4.83203125" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="37" customFormat="1" hidden="1">
@@ -10260,7 +10034,7 @@
       <c r="AA57" s="272"/>
       <c r="AB57" s="273"/>
       <c r="AC57" s="381" t="s">
-        <v>93</v>
+        <v>264</v>
       </c>
       <c r="AD57" s="274"/>
       <c r="AE57" s="275"/>
@@ -13523,7 +13297,7 @@
       <c r="AB154" s="361"/>
       <c r="AC154" s="362"/>
       <c r="AD154" s="336" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE154" s="337"/>
       <c r="AF154" s="337"/>
@@ -13625,7 +13399,7 @@
         <v>2</v>
       </c>
       <c r="G156" s="356" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H156" s="281"/>
       <c r="I156" s="281"/>
@@ -14078,15 +13852,15 @@
   </sheetPr>
   <dimension ref="A1:BA119"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A93" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="7" width="4.77734375" style="54"/>
-    <col min="8" max="8" width="4.77734375" style="54" customWidth="1"/>
-    <col min="9" max="16384" width="4.77734375" style="54"/>
+    <col min="1" max="7" width="4.83203125" style="54"/>
+    <col min="8" max="8" width="4.83203125" style="54" customWidth="1"/>
+    <col min="9" max="16384" width="4.83203125" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="37" customFormat="1" hidden="1">
@@ -15840,7 +15614,7 @@
       <c r="I76" s="308"/>
       <c r="J76" s="309"/>
       <c r="K76" s="289" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="L76" s="290"/>
       <c r="M76" s="290"/>
@@ -15849,7 +15623,7 @@
       <c r="P76" s="290"/>
       <c r="Q76" s="291"/>
       <c r="R76" s="289" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S76" s="290"/>
       <c r="T76" s="290"/>
@@ -15859,7 +15633,7 @@
       <c r="X76" s="290"/>
       <c r="Y76" s="291"/>
       <c r="Z76" s="289" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA76" s="290"/>
       <c r="AB76" s="290"/>
@@ -15877,7 +15651,7 @@
         <v>2</v>
       </c>
       <c r="E77" s="307" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F77" s="308"/>
       <c r="G77" s="308"/>
@@ -15885,7 +15659,7 @@
       <c r="I77" s="308"/>
       <c r="J77" s="309"/>
       <c r="K77" s="289" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L77" s="290"/>
       <c r="M77" s="290"/>
@@ -15894,7 +15668,7 @@
       <c r="P77" s="290"/>
       <c r="Q77" s="291"/>
       <c r="R77" s="289" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S77" s="290"/>
       <c r="T77" s="290"/>
@@ -15991,7 +15765,7 @@
     </row>
     <row r="81" spans="4:34">
       <c r="D81" s="54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="4:34">
@@ -16008,17 +15782,17 @@
     </row>
     <row r="87" spans="4:34">
       <c r="E87" s="54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="4:34">
       <c r="F89" s="54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="4:34">
       <c r="F91" s="54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="4:34" ht="12" customHeight="1"/>
@@ -16027,7 +15801,7 @@
         <v>42</v>
       </c>
       <c r="H93" s="271" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I93" s="272"/>
       <c r="J93" s="272"/>
@@ -16035,7 +15809,7 @@
       <c r="L93" s="272"/>
       <c r="M93" s="273"/>
       <c r="N93" s="403" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O93" s="404"/>
       <c r="P93" s="404"/>
@@ -16078,7 +15852,7 @@
       <c r="Q94" s="404"/>
       <c r="R94" s="405"/>
       <c r="S94" s="314" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T94" s="315"/>
       <c r="U94" s="315"/>
@@ -16101,7 +15875,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="394" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I95" s="395"/>
       <c r="J95" s="395"/>
@@ -16109,14 +15883,14 @@
       <c r="L95" s="395"/>
       <c r="M95" s="396"/>
       <c r="N95" s="155" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O95" s="156"/>
       <c r="P95" s="156"/>
       <c r="Q95" s="156"/>
       <c r="R95" s="157"/>
       <c r="S95" s="394" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T95" s="395"/>
       <c r="U95" s="395"/>
@@ -16149,7 +15923,7 @@
       <c r="L96" s="395"/>
       <c r="M96" s="396"/>
       <c r="N96" s="397" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O96" s="398"/>
       <c r="P96" s="398"/>
@@ -16404,12 +16178,12 @@
       <c r="AG102" s="290"/>
       <c r="AH102" s="291"/>
     </row>
-    <row r="103" spans="5:37" ht="40" customHeight="1">
+    <row r="103" spans="5:37" ht="39.950000000000003" customHeight="1">
       <c r="G103" s="105">
         <v>9</v>
       </c>
       <c r="H103" s="394" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I103" s="395"/>
       <c r="J103" s="395"/>
@@ -16447,7 +16221,7 @@
         <v>10</v>
       </c>
       <c r="H104" s="394" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I104" s="395"/>
       <c r="J104" s="395"/>
@@ -16561,7 +16335,7 @@
         <v>13</v>
       </c>
       <c r="H107" s="394" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I107" s="395"/>
       <c r="J107" s="395"/>
@@ -16584,7 +16358,7 @@
       <c r="W107" s="395"/>
       <c r="X107" s="396"/>
       <c r="Y107" s="289" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Z107" s="290"/>
       <c r="AA107" s="290"/>
@@ -16613,22 +16387,22 @@
     </row>
     <row r="112" spans="5:37">
       <c r="F112" s="54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115" spans="4:6">
       <c r="D115" s="54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="117" spans="4:6">
       <c r="E117" s="54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="119" spans="4:6">
       <c r="F119" s="54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -16883,15 +16657,15 @@
   </sheetPr>
   <dimension ref="A1:BA89"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A47" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="7" width="4.77734375" style="54"/>
-    <col min="8" max="8" width="4.77734375" style="54" customWidth="1"/>
-    <col min="9" max="16384" width="4.77734375" style="54"/>
+    <col min="1" max="7" width="4.83203125" style="54"/>
+    <col min="8" max="8" width="4.83203125" style="54" customWidth="1"/>
+    <col min="9" max="16384" width="4.83203125" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="37" customFormat="1" hidden="1">
@@ -17497,7 +17271,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="289" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F46" s="290"/>
       <c r="G46" s="290"/>
@@ -18038,19 +17812,19 @@
       <c r="AV58" s="42"/>
       <c r="AW58" s="42"/>
     </row>
-    <row r="59" spans="1:53" ht="25" customHeight="1">
+    <row r="59" spans="1:53" ht="24.95" customHeight="1">
       <c r="A59" s="56"/>
       <c r="D59" s="151">
         <v>1</v>
       </c>
       <c r="E59" s="423" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F59" s="424"/>
       <c r="G59" s="424"/>
       <c r="H59" s="425"/>
       <c r="I59" s="289" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J59" s="290"/>
       <c r="K59" s="290"/>
@@ -18059,7 +17833,7 @@
       <c r="N59" s="290"/>
       <c r="O59" s="291"/>
       <c r="P59" s="289" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q59" s="290"/>
       <c r="R59" s="290"/>
@@ -18119,7 +17893,7 @@
     <row r="63" spans="1:53">
       <c r="A63" s="56"/>
       <c r="D63" s="54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:53">
@@ -18128,7 +17902,7 @@
     <row r="65" spans="1:40">
       <c r="A65" s="56"/>
       <c r="E65" s="54" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:40">
@@ -18451,24 +18225,24 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="21" style="54" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="54" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="54" customWidth="1"/>
     <col min="5" max="16384" width="9.33203125" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="172" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="173" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="173" t="s">
+      <c r="C1" s="174" t="s">
         <v>239</v>
-      </c>
-      <c r="C1" s="174" t="s">
-        <v>240</v>
       </c>
       <c r="D1" s="174" t="s">
         <v>156</v>
@@ -18479,7 +18253,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="175" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C2" s="176" t="s">
         <v>51</v>
@@ -18493,7 +18267,7 @@
         <v>121</v>
       </c>
       <c r="B3" s="175" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" s="117" t="s">
         <v>150</v>
@@ -18507,24 +18281,24 @@
         <v>105</v>
       </c>
       <c r="B4" s="117" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="117" t="s">
         <v>243</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="D4" s="117" t="s">
         <v>244</v>
-      </c>
-      <c r="D4" s="117" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="117" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="117" t="s">
         <v>246</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="C5" s="117" t="s">
         <v>247</v>
-      </c>
-      <c r="C5" s="117" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -18532,7 +18306,7 @@
         <v>138</v>
       </c>
       <c r="C6" s="117" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -18540,12 +18314,12 @@
         <v>114</v>
       </c>
       <c r="C7" s="117" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="117" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -18555,17 +18329,17 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="117" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="117" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="117" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
